--- a/ece2cmor3/scripts/create-nemo-only-list/nemo-only-list-cmip6-requested-variables.xlsx
+++ b/ece2cmor3/scripts/create-nemo-only-list/nemo-only-list-cmip6-requested-variables.xlsx
@@ -2407,7 +2407,7 @@
     <t>Identified in the shaconemo (r274) ocean ping file: qsb_oce</t>
   </si>
   <si>
-    <t>Upward sensible heat flux over sea ice free sea. The surface sensible heat flux, also called turbulent heat flux, is the exchange of heat between the surface and the air by motion of air.</t>
+    <t>Downward sensible heat flux over sea ice free sea. The surface sensible heat flux, also called turbulent heat flux, is the exchange of heat between the surface and the air by motion of air.</t>
   </si>
   <si>
     <t xml:space="preserve"> P1 (W m-2) surface_downward_sensible_heat_flux : This is defined as "where ice_free_sea over sea" **** NEMO-RD: does not do </t>
